--- a/anjou/부록_엑셀_이럴땐이렇게/1. 입력수정/4. 필터정렬/경영지원부 임직원 내선번호.xlsx
+++ b/anjou/부록_엑셀_이럴땐이렇게/1. 입력수정/4. 필터정렬/경영지원부 임직원 내선번호.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gilbut\Desktop\엑셀마왕_예제\입력수정\4. 필터정렬\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjou_003\Documents\TIL\anjou\부록_엑셀_이럴땐이렇게\1. 입력수정\4. 필터정렬\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE056504-AFCD-4777-B7A4-368E005036B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63291815-E16F-4DAF-A698-83E9D891FEF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{237CEAD7-F9DE-44CC-B1B2-CFED6F450328}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{237CEAD7-F9DE-44CC-B1B2-CFED6F450328}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,21 +18,10 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$4:$E$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -61,115 +50,109 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>차장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최윤서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>과장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이철수</t>
+  </si>
+  <si>
+    <t>과장</t>
+  </si>
+  <si>
+    <t>박민지</t>
+  </si>
+  <si>
+    <t>대리</t>
+  </si>
+  <si>
+    <t>최영수</t>
+  </si>
+  <si>
+    <t>황지성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정하나</t>
+  </si>
+  <si>
+    <t>대리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원두현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강서연</t>
+  </si>
+  <si>
+    <t>이하윤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤지아</t>
+  </si>
+  <si>
+    <t>사원</t>
+  </si>
+  <si>
+    <t>임하늘</t>
+  </si>
+  <si>
+    <t>신민준</t>
+  </si>
+  <si>
+    <t>오유진</t>
+  </si>
+  <si>
+    <t>최민지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>송지후</t>
+  </si>
+  <si>
+    <t>허준호</t>
+  </si>
+  <si>
+    <t>김서율</t>
+  </si>
+  <si>
+    <t>박하린</t>
+  </si>
+  <si>
+    <t>이지안</t>
+  </si>
+  <si>
     <t>인사팀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>차장</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>최윤서</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>과장</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이철수</t>
-  </si>
-  <si>
-    <t>과장</t>
-  </si>
-  <si>
-    <t>박민지</t>
-  </si>
-  <si>
-    <t>대리</t>
-  </si>
-  <si>
-    <t>최영수</t>
   </si>
   <si>
     <t>재무팀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>황지성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정하나</t>
-  </si>
-  <si>
-    <t>대리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>원두현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>강서연</t>
   </si>
   <si>
     <t>법무팀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이하윤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>윤지아</t>
-  </si>
-  <si>
-    <t>사원</t>
-  </si>
-  <si>
-    <t>임하늘</t>
   </si>
   <si>
     <t>회계팀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신민준</t>
-  </si>
-  <si>
-    <t>오유진</t>
-  </si>
-  <si>
-    <t>최민지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>IT팀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>송지후</t>
-  </si>
-  <si>
-    <t>허준호</t>
   </si>
   <si>
     <t>구매팀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김서율</t>
-  </si>
-  <si>
-    <t>박하린</t>
-  </si>
-  <si>
-    <t>이지안</t>
   </si>
 </sst>
 </file>
@@ -350,35 +333,26 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -387,19 +361,25 @@
     <xf numFmtId="177" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -741,285 +721,323 @@
   <dimension ref="B1:E23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.59765625" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="1" width="8.5" customWidth="1"/>
+    <col min="2" max="2" width="9.75" customWidth="1"/>
+    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="18" thickBot="1"/>
-    <row r="2" spans="2:5" ht="28.2" thickBot="1">
-      <c r="B2" s="4" t="s">
+    <row r="1" spans="2:5" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:5" ht="27" thickBot="1">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="2:5" ht="21">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="2:5" ht="20.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="2:5" ht="22.5" customHeight="1">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="22.5" customHeight="1">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="8">
+        <v>5903</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="22.5" customHeight="1">
+      <c r="B6" s="14" t="str">
+        <f t="shared" ref="A6:B8" si="0">B5</f>
+        <v>인사팀</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="11">
-        <v>5903</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="22.5" customHeight="1">
-      <c r="B6" s="12"/>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="E6" s="8">
+        <v>4431</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="22.5" customHeight="1">
+      <c r="B7" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>인사팀</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="11">
-        <v>4431</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="22.5" customHeight="1">
-      <c r="B7" s="12"/>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="E7" s="8">
+        <v>6673</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="22.5" customHeight="1">
+      <c r="B8" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>인사팀</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="11">
-        <v>6673</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="22.5" customHeight="1">
-      <c r="B8" s="13"/>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="E8" s="8">
+        <v>8096</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="22.5" customHeight="1">
+      <c r="B9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="11">
-        <v>8096</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="22.5" customHeight="1">
-      <c r="B9" s="14" t="s">
+      <c r="E9" s="8">
+        <v>4442</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="22.5" customHeight="1">
+      <c r="B10" s="10" t="str">
+        <f t="shared" ref="A10:B12" si="1">B9</f>
+        <v>재무팀</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="10" t="s">
+      <c r="E10" s="8">
+        <v>5907</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="22.5" customHeight="1">
+      <c r="B11" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>재무팀</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="11">
-        <v>4442</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="22.5" customHeight="1">
-      <c r="B10" s="15"/>
-      <c r="C10" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="D11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="11">
-        <v>5907</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="22.5" customHeight="1">
-      <c r="B11" s="15"/>
-      <c r="C11" s="9" t="s">
+      <c r="E11" s="8">
+        <v>5217</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="22.5" customHeight="1">
+      <c r="B12" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>재무팀</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="11">
-        <v>5217</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="22.5" customHeight="1">
-      <c r="B12" s="16"/>
-      <c r="C12" s="9" t="s">
+      <c r="E12" s="8">
+        <v>5164</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="22.5" customHeight="1">
+      <c r="B13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="E13" s="8">
+        <v>3269</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="22.5" customHeight="1">
+      <c r="B14" s="10" t="str">
+        <f t="shared" ref="A14:B15" si="2">B13</f>
+        <v>법무팀</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="11">
-        <v>5164</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="22.5" customHeight="1">
-      <c r="B13" s="14" t="s">
+      <c r="E14" s="8">
+        <v>9177</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="22.5" customHeight="1">
+      <c r="B15" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>법무팀</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="10" t="s">
+      <c r="D15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="11">
-        <v>3269</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="22.5" customHeight="1">
-      <c r="B14" s="15"/>
-      <c r="C14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="E15" s="8">
+        <v>6714</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="22.5" customHeight="1">
+      <c r="B16" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="11">
-        <v>9177</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="22.5" customHeight="1">
-      <c r="B15" s="16"/>
-      <c r="C15" s="9" t="s">
+      <c r="E16" s="8">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="22.5" customHeight="1">
+      <c r="B17" s="10" t="str">
+        <f t="shared" ref="A17:B18" si="3">B16</f>
+        <v>회계팀</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="E17" s="8">
+        <v>4357</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="22.5" customHeight="1">
+      <c r="B18" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>회계팀</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="11">
-        <v>6714</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="22.5" customHeight="1">
-      <c r="B16" s="14" t="s">
+      <c r="E18" s="8">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="22.5" customHeight="1">
+      <c r="B19" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="10" t="s">
+      <c r="E19" s="8">
+        <v>9669</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="22.5" customHeight="1">
+      <c r="B20" s="11" t="str">
+        <f>B19</f>
+        <v>IT팀</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="11">
-        <v>3215</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="22.5" customHeight="1">
-      <c r="B17" s="15"/>
-      <c r="C17" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="10" t="s">
+      <c r="E20" s="8">
+        <v>5491</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="22.5" customHeight="1">
+      <c r="B21" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="11">
-        <v>4357</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="22.5" customHeight="1">
-      <c r="B18" s="16"/>
-      <c r="C18" s="9" t="s">
+      <c r="E21" s="8">
+        <v>5191</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="22.5" customHeight="1">
+      <c r="B22" s="10" t="str">
+        <f t="shared" ref="A22:B23" si="4">B21</f>
+        <v>구매팀</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="22.5" customHeight="1">
+      <c r="B23" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>구매팀</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="11">
-        <v>2748</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="22.5" customHeight="1">
-      <c r="B19" s="14" t="s">
+      <c r="D23" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="11">
-        <v>9669</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="22.5" customHeight="1">
-      <c r="B20" s="16"/>
-      <c r="C20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="11">
-        <v>5491</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="22.5" customHeight="1">
-      <c r="B21" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="11">
-        <v>5191</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="22.5" customHeight="1">
-      <c r="B22" s="15"/>
-      <c r="C22" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="11">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="22.5" customHeight="1">
-      <c r="B23" s="16"/>
-      <c r="C23" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="11">
+      <c r="E23" s="8">
         <v>1226</v>
       </c>
     </row>

--- a/anjou/부록_엑셀_이럴땐이렇게/1. 입력수정/4. 필터정렬/경영지원부 임직원 내선번호.xlsx
+++ b/anjou/부록_엑셀_이럴땐이렇게/1. 입력수정/4. 필터정렬/경영지원부 임직원 내선번호.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjou_003\Documents\TIL\anjou\부록_엑셀_이럴땐이렇게\1. 입력수정\4. 필터정렬\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63291815-E16F-4DAF-A698-83E9D891FEF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F6F78D-98E5-4529-8B5B-41C4DA861196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{237CEAD7-F9DE-44CC-B1B2-CFED6F450328}"/>
   </bookViews>
@@ -721,7 +721,7 @@
   <dimension ref="B1:E23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -778,7 +778,7 @@
     </row>
     <row r="6" spans="2:5" ht="22.5" customHeight="1">
       <c r="B6" s="14" t="str">
-        <f t="shared" ref="A6:B8" si="0">B5</f>
+        <f t="shared" ref="B6:B8" si="0">B5</f>
         <v>인사팀</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -837,7 +837,7 @@
     </row>
     <row r="10" spans="2:5" ht="22.5" customHeight="1">
       <c r="B10" s="10" t="str">
-        <f t="shared" ref="A10:B12" si="1">B9</f>
+        <f t="shared" ref="B10:B12" si="1">B9</f>
         <v>재무팀</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -896,7 +896,7 @@
     </row>
     <row r="14" spans="2:5" ht="22.5" customHeight="1">
       <c r="B14" s="10" t="str">
-        <f t="shared" ref="A14:B15" si="2">B13</f>
+        <f t="shared" ref="B14:B15" si="2">B13</f>
         <v>법무팀</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -940,7 +940,7 @@
     </row>
     <row r="17" spans="2:5" ht="22.5" customHeight="1">
       <c r="B17" s="10" t="str">
-        <f t="shared" ref="A17:B18" si="3">B16</f>
+        <f t="shared" ref="B17:B18" si="3">B16</f>
         <v>회계팀</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -1013,7 +1013,7 @@
     </row>
     <row r="22" spans="2:5" ht="22.5" customHeight="1">
       <c r="B22" s="10" t="str">
-        <f t="shared" ref="A22:B23" si="4">B21</f>
+        <f t="shared" ref="B22:B23" si="4">B21</f>
         <v>구매팀</v>
       </c>
       <c r="C22" s="6" t="s">
